--- a/data_year/zb/卫生/医疗卫生机构床位.xlsx
+++ b/data_year/zb/卫生/医疗卫生机构床位.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,784 +493,446 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.86</v>
+        <v>16.4515</v>
       </c>
       <c r="C2" t="n">
-        <v>25.08</v>
+        <v>45.95</v>
       </c>
       <c r="D2" t="n">
-        <v>2.84</v>
+        <v>2.9307</v>
       </c>
       <c r="E2" t="n">
-        <v>25.93</v>
+        <v>42.42</v>
       </c>
       <c r="F2" t="n">
-        <v>73.48</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>216.67</v>
+        <v>338.74</v>
       </c>
       <c r="H2" t="n">
-        <v>317.7</v>
+        <v>478.6831</v>
       </c>
       <c r="I2" t="n">
-        <v>76.65000000000001</v>
+        <v>119.2242</v>
       </c>
       <c r="J2" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>13.44</v>
+      </c>
+      <c r="K2" t="n">
+        <v>16.8814</v>
+      </c>
       <c r="L2" t="n">
-        <v>164.09</v>
+        <v>244.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.02</v>
+        <v>17.8132</v>
       </c>
       <c r="C3" t="n">
-        <v>25.65</v>
+        <v>49.6475</v>
       </c>
       <c r="D3" t="n">
-        <v>2.7</v>
+        <v>3.1431</v>
       </c>
       <c r="E3" t="n">
-        <v>24.6</v>
+        <v>47.7078</v>
       </c>
       <c r="F3" t="n">
-        <v>74</v>
+        <v>102.6251</v>
       </c>
       <c r="G3" t="n">
-        <v>215.6</v>
+        <v>370.51</v>
       </c>
       <c r="H3" t="n">
-        <v>320.1</v>
+        <v>515.9888999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>77.14</v>
+        <v>123.3721</v>
       </c>
       <c r="J3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>14.5866</v>
+      </c>
+      <c r="K3" t="n">
+        <v>18.7132</v>
+      </c>
       <c r="L3" t="n">
-        <v>150.5</v>
+        <v>267.0729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="C4" t="n">
-        <v>26.21</v>
-      </c>
+        <v>19.8198</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="E4" t="n">
-        <v>24.67</v>
-      </c>
+        <v>3.5715</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>67.13</v>
+        <v>109.9262</v>
       </c>
       <c r="G4" t="n">
-        <v>222.2</v>
+        <v>416.15</v>
       </c>
       <c r="H4" t="n">
-        <v>313.6</v>
+        <v>572.4775</v>
       </c>
       <c r="I4" t="n">
-        <v>71.05</v>
+        <v>132.427</v>
       </c>
       <c r="J4" t="n">
-        <v>7.98</v>
+        <v>16.156</v>
       </c>
       <c r="K4" t="n">
-        <v>1.2031</v>
-      </c>
-      <c r="L4" t="n">
-        <v>168.38</v>
-      </c>
+        <v>20.321</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26.7181</v>
-      </c>
+        <v>21.487</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>3.3802</v>
-      </c>
-      <c r="E5" t="n">
-        <v>26.0213</v>
-      </c>
+        <v>3.8507</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>67.2741</v>
+        <v>113.65</v>
       </c>
       <c r="G5" t="n">
-        <v>227</v>
+        <v>457.86</v>
       </c>
       <c r="H5" t="n">
-        <v>316.4</v>
+        <v>618.1891000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>71.05</v>
+        <v>134.9908</v>
       </c>
       <c r="J5" t="n">
-        <v>8.0924</v>
+        <v>17.55</v>
       </c>
       <c r="K5" t="n">
-        <v>1.2105</v>
-      </c>
-      <c r="L5" t="n">
-        <v>171.3438</v>
-      </c>
+        <v>19.4241</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28.2601</v>
-      </c>
+        <v>22.3033</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>3.1189</v>
-      </c>
-      <c r="E6" t="n">
-        <v>27.5467</v>
-      </c>
+        <v>3.7618</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>66.88630000000001</v>
+        <v>116.7245</v>
       </c>
       <c r="G6" t="n">
-        <v>236.3</v>
+        <v>496.1161</v>
       </c>
       <c r="H6" t="n">
-        <v>326.8</v>
+        <v>660.1214</v>
       </c>
       <c r="I6" t="n">
-        <v>71.44</v>
+        <v>138.1197</v>
       </c>
       <c r="J6" t="n">
-        <v>8.696</v>
+        <v>18.4815</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8137</v>
-      </c>
-      <c r="L6" t="n">
-        <v>177.6804</v>
-      </c>
+        <v>19.5913</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="C7" t="n">
-        <v>29.21</v>
-      </c>
+        <v>23.6342</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="E7" t="n">
-        <v>28.77</v>
-      </c>
+        <v>4.0349</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>67.81999999999999</v>
+        <v>119.6122</v>
       </c>
       <c r="G7" t="n">
-        <v>244.5</v>
+        <v>533.0599999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>336.75</v>
+        <v>701.5214</v>
       </c>
       <c r="I7" t="n">
-        <v>72.58</v>
+        <v>141.3842</v>
       </c>
       <c r="J7" t="n">
-        <v>9.41</v>
+        <v>19.5352</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5018</v>
-      </c>
-      <c r="L7" t="n">
-        <v>183.47</v>
-      </c>
+        <v>20.0979</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>32.0503</v>
-      </c>
+        <v>24.7228</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>2.8013</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30.3155</v>
-      </c>
+        <v>4.0048</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>69.62309999999999</v>
+        <v>122.3891</v>
       </c>
       <c r="G8" t="n">
-        <v>256.04</v>
+        <v>568.8875</v>
       </c>
       <c r="H8" t="n">
-        <v>351.18</v>
+        <v>741.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>76.19</v>
+        <v>144.194</v>
       </c>
       <c r="J8" t="n">
-        <v>9.9291</v>
+        <v>20.6538</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1194</v>
-      </c>
-      <c r="L8" t="n">
-        <v>190.2894</v>
-      </c>
+        <v>20.2689</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="C9" t="n">
-        <v>34.3743</v>
-      </c>
+        <v>26.257</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>2.5939</v>
-      </c>
-      <c r="E9" t="n">
-        <v>32.1597</v>
-      </c>
+        <v>4.0833</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>74.71559999999999</v>
+        <v>129.2076</v>
       </c>
       <c r="G9" t="n">
-        <v>267.51</v>
+        <v>612.0484</v>
       </c>
       <c r="H9" t="n">
-        <v>370.1076</v>
+        <v>794.0252</v>
       </c>
       <c r="I9" t="n">
-        <v>85.03</v>
+        <v>152.8528</v>
       </c>
       <c r="J9" t="n">
-        <v>10.6189</v>
+        <v>22.1136</v>
       </c>
       <c r="K9" t="n">
-        <v>7.6588</v>
-      </c>
-      <c r="L9" t="n">
-        <v>197.1551</v>
-      </c>
+        <v>21.8358</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="C10" t="n">
-        <v>37.7694</v>
-      </c>
+        <v>27.4394</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>2.6351</v>
-      </c>
-      <c r="E10" t="n">
-        <v>35.0257</v>
-      </c>
+        <v>4.0845</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>84.68559999999999</v>
+        <v>133.3909</v>
       </c>
       <c r="G10" t="n">
-        <v>288.29</v>
+        <v>651.9749</v>
       </c>
       <c r="H10" t="n">
-        <v>403.8707</v>
+        <v>840.4088</v>
       </c>
       <c r="I10" t="n">
-        <v>97.09999999999999</v>
+        <v>158.3577</v>
       </c>
       <c r="J10" t="n">
-        <v>11.7261</v>
+        <v>23.2848</v>
       </c>
       <c r="K10" t="n">
-        <v>9.803599999999999</v>
-      </c>
-      <c r="L10" t="n">
-        <v>211.2792</v>
-      </c>
+        <v>23.1274</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.3964</v>
-      </c>
-      <c r="C11" t="n">
-        <v>41.6707</v>
-      </c>
+        <v>28.5018</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>2.7081</v>
-      </c>
-      <c r="E11" t="n">
-        <v>38.5612</v>
-      </c>
+        <v>4.1077</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>93.3424</v>
+        <v>136.9914</v>
       </c>
       <c r="G11" t="n">
-        <v>312.08</v>
+        <v>686.6546</v>
       </c>
       <c r="H11" t="n">
-        <v>441.6612</v>
+        <v>880.6956</v>
       </c>
       <c r="I11" t="n">
-        <v>109.9791</v>
+        <v>163.1132</v>
       </c>
       <c r="J11" t="n">
-        <v>12.6109</v>
+        <v>24.3232</v>
       </c>
       <c r="K11" t="n">
-        <v>13.1259</v>
-      </c>
-      <c r="L11" t="n">
-        <v>227.1102</v>
-      </c>
+        <v>23.7445</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.4515</v>
-      </c>
-      <c r="C12" t="n">
-        <v>45.95</v>
-      </c>
+        <v>29.6063</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>2.9307</v>
-      </c>
-      <c r="E12" t="n">
-        <v>42.42</v>
-      </c>
+        <v>4.2323</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>99.43000000000001</v>
+        <v>139.0325</v>
       </c>
       <c r="G12" t="n">
-        <v>338.74</v>
+        <v>713.1186</v>
       </c>
       <c r="H12" t="n">
-        <v>478.6831</v>
+        <v>910.0700000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>119.2242</v>
+        <v>164.9384</v>
       </c>
       <c r="J12" t="n">
-        <v>13.44</v>
+        <v>25.292</v>
       </c>
       <c r="K12" t="n">
-        <v>16.8814</v>
-      </c>
-      <c r="L12" t="n">
-        <v>244.95</v>
-      </c>
+        <v>23.8343</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.8132</v>
-      </c>
-      <c r="C13" t="n">
-        <v>49.6475</v>
-      </c>
+        <v>30.1566</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>3.1431</v>
-      </c>
-      <c r="E13" t="n">
-        <v>47.7078</v>
-      </c>
+        <v>4.0611</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>102.6251</v>
+        <v>141.741</v>
       </c>
       <c r="G13" t="n">
-        <v>370.51</v>
+        <v>741.4228000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>515.9888999999999</v>
+        <v>945.011</v>
       </c>
       <c r="I13" t="n">
-        <v>123.3721</v>
+        <v>169.9776</v>
       </c>
       <c r="J13" t="n">
-        <v>14.5866</v>
+        <v>26.0132</v>
       </c>
       <c r="K13" t="n">
-        <v>18.7132</v>
-      </c>
-      <c r="L13" t="n">
-        <v>267.0729</v>
-      </c>
+        <v>25.172</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>19.8198</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>3.5715</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>109.9262</v>
+        <v>145</v>
       </c>
       <c r="G14" t="n">
-        <v>416.15</v>
+        <v>766.3</v>
       </c>
       <c r="H14" t="n">
-        <v>572.4775</v>
-      </c>
-      <c r="I14" t="n">
-        <v>132.427</v>
-      </c>
-      <c r="J14" t="n">
-        <v>16.156</v>
-      </c>
-      <c r="K14" t="n">
-        <v>20.321</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>21.487</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>3.8507</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>113.65</v>
-      </c>
-      <c r="G15" t="n">
-        <v>457.86</v>
-      </c>
-      <c r="H15" t="n">
-        <v>618.1891000000001</v>
-      </c>
-      <c r="I15" t="n">
-        <v>134.9908</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17.55</v>
-      </c>
-      <c r="K15" t="n">
-        <v>19.4241</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>22.3033</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>3.7618</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>116.7245</v>
-      </c>
-      <c r="G16" t="n">
-        <v>496.1161</v>
-      </c>
-      <c r="H16" t="n">
-        <v>660.1214</v>
-      </c>
-      <c r="I16" t="n">
-        <v>138.1197</v>
-      </c>
-      <c r="J16" t="n">
-        <v>18.4815</v>
-      </c>
-      <c r="K16" t="n">
-        <v>19.5913</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>23.6342</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>4.0349</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>119.6122</v>
-      </c>
-      <c r="G17" t="n">
-        <v>533.0599999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>701.5214</v>
-      </c>
-      <c r="I17" t="n">
-        <v>141.3842</v>
-      </c>
-      <c r="J17" t="n">
-        <v>19.5352</v>
-      </c>
-      <c r="K17" t="n">
-        <v>20.0979</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>24.7228</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>4.0048</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>122.3891</v>
-      </c>
-      <c r="G18" t="n">
-        <v>568.8875</v>
-      </c>
-      <c r="H18" t="n">
-        <v>741.0453</v>
-      </c>
-      <c r="I18" t="n">
-        <v>144.194</v>
-      </c>
-      <c r="J18" t="n">
-        <v>20.6538</v>
-      </c>
-      <c r="K18" t="n">
-        <v>20.2689</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>26.257</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>4.0833</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>129.2076</v>
-      </c>
-      <c r="G19" t="n">
-        <v>612.0484</v>
-      </c>
-      <c r="H19" t="n">
-        <v>794.0252</v>
-      </c>
-      <c r="I19" t="n">
-        <v>152.8528</v>
-      </c>
-      <c r="J19" t="n">
-        <v>22.1136</v>
-      </c>
-      <c r="K19" t="n">
-        <v>21.8358</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>27.4394</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>4.0845</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>133.3909</v>
-      </c>
-      <c r="G20" t="n">
-        <v>651.9749</v>
-      </c>
-      <c r="H20" t="n">
-        <v>840.4088</v>
-      </c>
-      <c r="I20" t="n">
-        <v>158.3577</v>
-      </c>
-      <c r="J20" t="n">
-        <v>23.2848</v>
-      </c>
-      <c r="K20" t="n">
-        <v>23.1274</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>28.5018</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>4.1077</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>136.9914</v>
-      </c>
-      <c r="G21" t="n">
-        <v>686.6546</v>
-      </c>
-      <c r="H21" t="n">
-        <v>880.6956</v>
-      </c>
-      <c r="I21" t="n">
-        <v>163.1132</v>
-      </c>
-      <c r="J21" t="n">
-        <v>24.3232</v>
-      </c>
-      <c r="K21" t="n">
-        <v>23.7445</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>29.6063</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>4.2323</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>139.0325</v>
-      </c>
-      <c r="G22" t="n">
-        <v>713.1186</v>
-      </c>
-      <c r="H22" t="n">
-        <v>910.0700000000001</v>
-      </c>
-      <c r="I22" t="n">
-        <v>164.9384</v>
-      </c>
-      <c r="J22" t="n">
-        <v>25.292</v>
-      </c>
-      <c r="K22" t="n">
-        <v>23.8343</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
